--- a/team_specific_matrix/South Alabama_B.xlsx
+++ b/team_specific_matrix/South Alabama_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2090909090909091</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="C2">
-        <v>0.5454545454545454</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01363636363636364</v>
+        <v>0.008823529411764706</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1363636363636364</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09545454545454546</v>
+        <v>0.1058823529411765</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008064516129032258</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008064516129032258</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7258064516129032</v>
+        <v>0.7210526315789474</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2258064516129032</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06557377049180328</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03278688524590164</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.00819672131147541</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2786885245901639</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1311475409836066</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R6">
-        <v>0.04098360655737705</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="S6">
-        <v>0.4426229508196721</v>
+        <v>0.4095744680851064</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1126760563380282</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0352112676056338</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01408450704225352</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1619718309859155</v>
+        <v>0.1493212669683258</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02816901408450704</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2112676056338028</v>
+        <v>0.1900452488687783</v>
       </c>
       <c r="R7">
-        <v>0.07746478873239436</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="S7">
-        <v>0.3591549295774648</v>
+        <v>0.3484162895927602</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.119496855345912</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02515723270440252</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="F8">
-        <v>0.05345911949685535</v>
+        <v>0.05482456140350877</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1163522012578616</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009433962264150943</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2106918238993711</v>
+        <v>0.1885964912280702</v>
       </c>
       <c r="R8">
-        <v>0.07861635220125786</v>
+        <v>0.08114035087719298</v>
       </c>
       <c r="S8">
-        <v>0.3867924528301887</v>
+        <v>0.3925438596491228</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,20 +911,20 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.09595959595959595</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.02525252525252525</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0.09090909090909091</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.007575757575757576</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.1136363636363636</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08333333333333333</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.196969696969697</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="R9">
-        <v>0.07575757575757576</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S9">
-        <v>0.4318181818181818</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1061571125265393</v>
+        <v>0.1079504011670314</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01273885350318471</v>
+        <v>0.01604668125455872</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06050955414012739</v>
+        <v>0.06345733041575492</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.143312101910828</v>
+        <v>0.1349380014587892</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01061571125265393</v>
+        <v>0.01021152443471918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2303609341825902</v>
+        <v>0.2355944566010212</v>
       </c>
       <c r="R10">
-        <v>0.07537154989384288</v>
+        <v>0.07731582786287382</v>
       </c>
       <c r="S10">
-        <v>0.3609341825902335</v>
+        <v>0.3544857768052516</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1351351351351351</v>
+        <v>0.1471571906354515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04324324324324325</v>
+        <v>0.05351170568561873</v>
       </c>
       <c r="K11">
-        <v>0.1675675675675676</v>
+        <v>0.1872909698996655</v>
       </c>
       <c r="L11">
-        <v>0.6432432432432432</v>
+        <v>0.6020066889632107</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01081081081081081</v>
+        <v>0.01003344481605351</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7647058823529411</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2184873949579832</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="K12">
-        <v>0.008403361344537815</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008403361344537815</v>
+        <v>0.005494505494505495</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8484848484848485</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1515151515151515</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008064516129032258</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1854838709677419</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="I15">
-        <v>0.08870967741935484</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="J15">
-        <v>0.3467741935483871</v>
+        <v>0.3585858585858586</v>
       </c>
       <c r="K15">
-        <v>0.1048387096774194</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03225806451612903</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02419354838709677</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2096774193548387</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007462686567164179</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2014925373134328</v>
+        <v>0.1831683168316832</v>
       </c>
       <c r="I16">
-        <v>0.06716417910447761</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="J16">
-        <v>0.5074626865671642</v>
+        <v>0.4900990099009901</v>
       </c>
       <c r="K16">
-        <v>0.06716417910447761</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02238805970149254</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03731343283582089</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08955223880597014</v>
+        <v>0.07920792079207921</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005617977528089887</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1853932584269663</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="I17">
-        <v>0.07865168539325842</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="J17">
-        <v>0.4662921348314606</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K17">
-        <v>0.07303370786516854</v>
+        <v>0.07115384615384615</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01404494382022472</v>
+        <v>0.025</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="O17">
-        <v>0.06460674157303371</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1123595505617977</v>
+        <v>0.1057692307692308</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.140495867768595</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I18">
-        <v>0.115702479338843</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="J18">
-        <v>0.5206611570247934</v>
+        <v>0.4569892473118279</v>
       </c>
       <c r="K18">
-        <v>0.05785123966942149</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01652892561983471</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05785123966942149</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.08602150537634409</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01538461538461539</v>
+        <v>0.01383238405207486</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2248520710059172</v>
+        <v>0.2148087876322213</v>
       </c>
       <c r="I19">
-        <v>0.08165680473372781</v>
+        <v>0.0821806346623271</v>
       </c>
       <c r="J19">
-        <v>0.3905325443786982</v>
+        <v>0.3938161106590724</v>
       </c>
       <c r="K19">
-        <v>0.114792899408284</v>
+        <v>0.1220504475183076</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02248520710059172</v>
+        <v>0.02115541090317331</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05680473372781065</v>
+        <v>0.06102522375915378</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09349112426035502</v>
+        <v>0.09113100081366965</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Alabama_B.xlsx
+++ b/team_specific_matrix/South Alabama_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2117647058823529</v>
+        <v>0.2148760330578512</v>
       </c>
       <c r="C2">
-        <v>0.5411764705882353</v>
+        <v>0.5371900826446281</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008823529411764706</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1323529411764706</v>
+        <v>0.1349862258953168</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1058823529411765</v>
+        <v>0.1046831955922865</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005263157894736842</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>0.03157894736842105</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005263157894736842</v>
+        <v>0.005</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7210526315789474</v>
+        <v>0.72</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2368421052631579</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5625</v>
+        <v>0.58</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.375</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0797872340425532</v>
+        <v>0.075</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02659574468085106</v>
+        <v>0.03</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01595744680851064</v>
+        <v>0.015</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2446808510638298</v>
+        <v>0.255</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005319148936170213</v>
+        <v>0.005</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.148936170212766</v>
+        <v>0.165</v>
       </c>
       <c r="R6">
-        <v>0.06914893617021277</v>
+        <v>0.065</v>
       </c>
       <c r="S6">
-        <v>0.4095744680851064</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1357466063348416</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03619909502262444</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03167420814479638</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1493212669683258</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02262443438914027</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1900452488687783</v>
+        <v>0.1991341991341991</v>
       </c>
       <c r="R7">
-        <v>0.08597285067873303</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="S7">
-        <v>0.3484162895927602</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1206140350877193</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02192982456140351</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="E8">
-        <v>0.002192982456140351</v>
+        <v>0.002024291497975709</v>
       </c>
       <c r="F8">
-        <v>0.05482456140350877</v>
+        <v>0.05060728744939271</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1194331983805668</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0131578947368421</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1885964912280702</v>
+        <v>0.1882591093117409</v>
       </c>
       <c r="R8">
-        <v>0.08114035087719298</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="S8">
-        <v>0.3925438596491228</v>
+        <v>0.4048582995951417</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09595959595959595</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02525252525252525</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09090909090909091</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08080808080808081</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005050505050505051</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2070707070707071</v>
+        <v>0.213953488372093</v>
       </c>
       <c r="R9">
-        <v>0.0707070707070707</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="S9">
-        <v>0.4242424242424243</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1079504011670314</v>
+        <v>0.1086065573770492</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01604668125455872</v>
+        <v>0.0157103825136612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06345733041575492</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1349380014587892</v>
+        <v>0.1379781420765027</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01021152443471918</v>
+        <v>0.01024590163934426</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2355944566010212</v>
+        <v>0.2342896174863388</v>
       </c>
       <c r="R10">
-        <v>0.07731582786287382</v>
+        <v>0.07581967213114754</v>
       </c>
       <c r="S10">
-        <v>0.3544857768052516</v>
+        <v>0.3545081967213115</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1471571906354515</v>
+        <v>0.1446945337620579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05351170568561873</v>
+        <v>0.05466237942122187</v>
       </c>
       <c r="K11">
-        <v>0.1872909698996655</v>
+        <v>0.1864951768488746</v>
       </c>
       <c r="L11">
-        <v>0.6020066889632107</v>
+        <v>0.6045016077170418</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01003344481605351</v>
+        <v>0.009646302250803859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7582417582417582</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2197802197802198</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="K12">
-        <v>0.01098901098901099</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L12">
-        <v>0.005494505494505495</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.005494505494505495</v>
+        <v>0.005263157894736842</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8076923076923077</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1923076923076923</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01515151515151515</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.196969696969697</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I15">
-        <v>0.08585858585858586</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="J15">
-        <v>0.3585858585858586</v>
+        <v>0.3640552995391705</v>
       </c>
       <c r="K15">
-        <v>0.08585858585858586</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02525252525252525</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0505050505050505</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1818181818181818</v>
+        <v>0.1797235023041475</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009900990099009901</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1831683168316832</v>
+        <v>0.1906976744186047</v>
       </c>
       <c r="I16">
-        <v>0.07425742574257425</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="J16">
-        <v>0.4900990099009901</v>
+        <v>0.4837209302325581</v>
       </c>
       <c r="K16">
-        <v>0.0891089108910891</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02475247524752475</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04950495049504951</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07920792079207921</v>
+        <v>0.07441860465116279</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00576923076923077</v>
+        <v>0.0071301247771836</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1769230769230769</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I17">
-        <v>0.08461538461538462</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0.4615384615384616</v>
+        <v>0.4616755793226381</v>
       </c>
       <c r="K17">
-        <v>0.07115384615384615</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.025</v>
+        <v>0.0231729055258467</v>
       </c>
       <c r="N17">
-        <v>0.001923076923076923</v>
+        <v>0.0017825311942959</v>
       </c>
       <c r="O17">
-        <v>0.0673076923076923</v>
+        <v>0.0677361853832442</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1057692307692308</v>
+        <v>0.1016042780748663</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01612903225806452</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1720430107526882</v>
+        <v>0.1804123711340206</v>
       </c>
       <c r="I18">
-        <v>0.1075268817204301</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="J18">
-        <v>0.4569892473118279</v>
+        <v>0.4484536082474227</v>
       </c>
       <c r="K18">
-        <v>0.08602150537634409</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02150537634408602</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05376344086021505</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08602150537634409</v>
+        <v>0.08247422680412371</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01383238405207486</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2148087876322213</v>
+        <v>0.2168949771689498</v>
       </c>
       <c r="I19">
-        <v>0.0821806346623271</v>
+        <v>0.08143074581430745</v>
       </c>
       <c r="J19">
-        <v>0.3938161106590724</v>
+        <v>0.3911719939117199</v>
       </c>
       <c r="K19">
-        <v>0.1220504475183076</v>
+        <v>0.1187214611872146</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02115541090317331</v>
+        <v>0.02207001522070015</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06102522375915378</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09113100081366965</v>
+        <v>0.09208523592085235</v>
       </c>
     </row>
   </sheetData>
